--- a/test_output/integration_tests/yield_table.xlsx
+++ b/test_output/integration_tests/yield_table.xlsx
@@ -528,7 +528,7 @@
         <v>0.42</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5069469333763332</v>
+        <v>0.5057117843089891</v>
       </c>
       <c r="D2" t="n">
         <v>0.5</v>
@@ -540,10 +540,10 @@
         <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03351235641293408</v>
+        <v>0.03334925322627221</v>
       </c>
       <c r="H2" t="n">
-        <v>2.503721781979539</v>
+        <v>2.493938204873166</v>
       </c>
       <c r="I2" t="n">
         <v>480</v>
@@ -577,28 +577,28 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B3" t="n">
-        <v>9.859999999999999</v>
+        <v>9.82</v>
       </c>
       <c r="C3" t="n">
-        <v>2.471116545731809</v>
+        <v>2.471054293119257</v>
       </c>
       <c r="D3" t="n">
         <v>2.47</v>
       </c>
       <c r="E3" t="n">
-        <v>19.52584197466487</v>
+        <v>19.52586103200873</v>
       </c>
       <c r="F3" t="n">
         <v>19.47</v>
       </c>
       <c r="G3" t="n">
-        <v>0.7856640460904132</v>
+        <v>0.7829703248418611</v>
       </c>
       <c r="H3" t="n">
-        <v>31.39679685157213</v>
+        <v>31.28946141365542</v>
       </c>
       <c r="I3" t="n">
         <v>480</v>
@@ -610,7 +610,7 @@
         <v>5</v>
       </c>
       <c r="L3" t="n">
-        <v>143.2</v>
+        <v>142.71</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -632,40 +632,40 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="B4" t="n">
-        <v>25.89</v>
+        <v>26.25</v>
       </c>
       <c r="C4" t="n">
-        <v>4.059653779176218</v>
+        <v>4.059984330580397</v>
       </c>
       <c r="D4" t="n">
         <v>4.06</v>
       </c>
       <c r="E4" t="n">
-        <v>31.45523566359809</v>
+        <v>31.45541404691291</v>
       </c>
       <c r="F4" t="n">
         <v>31.41</v>
       </c>
       <c r="G4" t="n">
-        <v>1.558795248779134</v>
+        <v>1.580593040986829</v>
       </c>
       <c r="H4" t="n">
-        <v>67.76685455975597</v>
+        <v>68.71704019278643</v>
       </c>
       <c r="I4" t="n">
         <v>480</v>
       </c>
       <c r="J4" t="n">
-        <v>1.411809469994916</v>
+        <v>1.431605004016384</v>
       </c>
       <c r="K4" t="n">
         <v>10</v>
       </c>
       <c r="L4" t="n">
-        <v>426.42</v>
+        <v>432.41</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -687,43 +687,43 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="B5" t="n">
-        <v>51.54</v>
+        <v>52.63</v>
       </c>
       <c r="C5" t="n">
-        <v>5.768456699028523</v>
+        <v>5.76811018449127</v>
       </c>
       <c r="D5" t="n">
         <v>5.77</v>
       </c>
       <c r="E5" t="n">
-        <v>42.00899738867737</v>
+        <v>42.00774045070173</v>
       </c>
       <c r="F5" t="n">
         <v>41.96</v>
       </c>
       <c r="G5" t="n">
-        <v>2.369675184921451</v>
+        <v>2.419544036814349</v>
       </c>
       <c r="H5" t="n">
-        <v>117.4408152432731</v>
+        <v>119.9103973679238</v>
       </c>
       <c r="I5" t="n">
         <v>480</v>
       </c>
       <c r="J5" t="n">
-        <v>2.446683650901523</v>
+        <v>2.498133278498413</v>
       </c>
       <c r="K5" t="n">
         <v>15</v>
       </c>
       <c r="L5" t="n">
-        <v>1044.33</v>
+        <v>1066.25</v>
       </c>
       <c r="M5" t="n">
-        <v>250.5347857437602</v>
+        <v>255.7526486632848</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
@@ -742,43 +742,43 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="B6" t="n">
-        <v>81.23999999999999</v>
+        <v>82.87</v>
       </c>
       <c r="C6" t="n">
-        <v>7.306560519713526</v>
+        <v>7.301655941582509</v>
       </c>
       <c r="D6" t="n">
         <v>7.3</v>
       </c>
       <c r="E6" t="n">
-        <v>50.43255770356778</v>
+        <v>50.42790320539729</v>
       </c>
       <c r="F6" t="n">
         <v>50.38</v>
       </c>
       <c r="G6" t="n">
-        <v>3.21473376971244</v>
+        <v>3.280728637092667</v>
       </c>
       <c r="H6" t="n">
-        <v>168.6023197258956</v>
+        <v>172.0426607747431</v>
       </c>
       <c r="I6" t="n">
         <v>480</v>
       </c>
       <c r="J6" t="n">
-        <v>3.512548327622826</v>
+        <v>3.584222099473814</v>
       </c>
       <c r="K6" t="n">
         <v>20</v>
       </c>
       <c r="L6" t="n">
-        <v>1928.2</v>
+        <v>1966.93</v>
       </c>
       <c r="M6" t="n">
-        <v>737.5714651377438</v>
+        <v>751.7104277614453</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -797,46 +797,46 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="B7" t="n">
-        <v>111.9</v>
+        <v>114.94</v>
       </c>
       <c r="C7" t="n">
-        <v>8.637289495087082</v>
+        <v>8.629405522417626</v>
       </c>
       <c r="D7" t="n">
-        <v>8.630000000000001</v>
+        <v>8.619999999999999</v>
       </c>
       <c r="E7" t="n">
-        <v>57.2066721862703</v>
+        <v>57.19786617065886</v>
       </c>
       <c r="F7" t="n">
-        <v>57.15</v>
+        <v>57.14</v>
       </c>
       <c r="G7" t="n">
-        <v>4.038136470056594</v>
+        <v>4.149937990712941</v>
       </c>
       <c r="H7" t="n">
-        <v>217.3794786724229</v>
+        <v>223.375606764845</v>
       </c>
       <c r="I7" t="n">
         <v>480</v>
       </c>
       <c r="J7" t="n">
-        <v>4.528739139008811</v>
+        <v>4.653658474267603</v>
       </c>
       <c r="K7" t="n">
         <v>25</v>
       </c>
       <c r="L7" t="n">
-        <v>2982.87</v>
+        <v>3063.73</v>
       </c>
       <c r="M7" t="n">
-        <v>1392.554399544575</v>
+        <v>1429.093825789228</v>
       </c>
       <c r="N7" t="n">
-        <v>137.3436711322511</v>
+        <v>100.1069680200253</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -855,10 +855,10 @@
         <v>600</v>
       </c>
       <c r="B8" t="n">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5087083638153852</v>
+        <v>0.5132584573281596</v>
       </c>
       <c r="D8" t="n">
         <v>0.5</v>
@@ -870,10 +870,10 @@
         <v>1</v>
       </c>
       <c r="G8" t="n">
-        <v>0.067491288182133</v>
+        <v>0.06870402644466962</v>
       </c>
       <c r="H8" t="n">
-        <v>5.03539796035644</v>
+        <v>5.107880329632408</v>
       </c>
       <c r="I8" t="n">
         <v>480</v>
@@ -907,40 +907,40 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>595</v>
+        <v>588</v>
       </c>
       <c r="B9" t="n">
-        <v>19.81</v>
+        <v>19.57</v>
       </c>
       <c r="C9" t="n">
-        <v>2.470561319309466</v>
+        <v>2.470401570951238</v>
       </c>
       <c r="D9" t="n">
         <v>2.47</v>
       </c>
       <c r="E9" t="n">
-        <v>19.52182429045299</v>
+        <v>19.52173010063862</v>
       </c>
       <c r="F9" t="n">
         <v>19.46</v>
       </c>
       <c r="G9" t="n">
-        <v>1.578581292631269</v>
+        <v>1.559808011720739</v>
       </c>
       <c r="H9" t="n">
-        <v>63.08904653873642</v>
+        <v>62.34035220330757</v>
       </c>
       <c r="I9" t="n">
         <v>480</v>
       </c>
       <c r="J9" t="n">
-        <v>1.314355136223675</v>
+        <v>1.298757337568908</v>
       </c>
       <c r="K9" t="n">
         <v>5</v>
       </c>
       <c r="L9" t="n">
-        <v>287.74</v>
+        <v>284.32</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -962,40 +962,40 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="B10" t="n">
-        <v>51.49</v>
+        <v>51.13</v>
       </c>
       <c r="C10" t="n">
-        <v>4.037777897108006</v>
+        <v>4.037734846008885</v>
       </c>
       <c r="D10" t="n">
         <v>4.04</v>
       </c>
       <c r="E10" t="n">
-        <v>31.40402058760387</v>
+        <v>31.40510572340726</v>
       </c>
       <c r="F10" t="n">
-        <v>31.36</v>
+        <v>31.35</v>
       </c>
       <c r="G10" t="n">
-        <v>3.114435522496962</v>
+        <v>3.092883095523207</v>
       </c>
       <c r="H10" t="n">
-        <v>135.0632382432114</v>
+        <v>134.1278635642367</v>
       </c>
       <c r="I10" t="n">
         <v>480</v>
       </c>
       <c r="J10" t="n">
-        <v>2.813817463400238</v>
+        <v>2.794330490921598</v>
       </c>
       <c r="K10" t="n">
         <v>10</v>
       </c>
       <c r="L10" t="n">
-        <v>848.02</v>
+        <v>842.15</v>
       </c>
       <c r="M10" t="n">
         <v>0</v>
@@ -1017,43 +1017,43 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>569</v>
+        <v>563</v>
       </c>
       <c r="B11" t="n">
-        <v>95.81999999999999</v>
+        <v>94.89</v>
       </c>
       <c r="C11" t="n">
-        <v>5.556443801794358</v>
+        <v>5.559033398405213</v>
       </c>
       <c r="D11" t="n">
         <v>5.56</v>
       </c>
       <c r="E11" t="n">
-        <v>41.85671720706162</v>
+        <v>41.85921049288094</v>
       </c>
       <c r="F11" t="n">
         <v>41.81</v>
       </c>
       <c r="G11" t="n">
-        <v>4.52082693751927</v>
+        <v>4.47587443156129</v>
       </c>
       <c r="H11" t="n">
-        <v>221.5701914670323</v>
+        <v>219.3977879257586</v>
       </c>
       <c r="I11" t="n">
         <v>480</v>
       </c>
       <c r="J11" t="n">
-        <v>4.616045655563173</v>
+        <v>4.570787248453304</v>
       </c>
       <c r="K11" t="n">
         <v>15</v>
       </c>
       <c r="L11" t="n">
-        <v>1942.35</v>
+        <v>1923.63</v>
       </c>
       <c r="M11" t="n">
-        <v>419.5841424708498</v>
+        <v>416.1111719813493</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -1072,43 +1072,43 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="B12" t="n">
-        <v>138.86</v>
+        <v>139.88</v>
       </c>
       <c r="C12" t="n">
-        <v>6.803749558847294</v>
+        <v>6.810100972147636</v>
       </c>
       <c r="D12" t="n">
-        <v>6.8</v>
+        <v>6.81</v>
       </c>
       <c r="E12" t="n">
-        <v>50.14101179279861</v>
+        <v>50.14640569664883</v>
       </c>
       <c r="F12" t="n">
         <v>50.09</v>
       </c>
       <c r="G12" t="n">
-        <v>5.733457918345702</v>
+        <v>5.772261577340355</v>
       </c>
       <c r="H12" t="n">
-        <v>296.4310837228882</v>
+        <v>298.4946701860059</v>
       </c>
       <c r="I12" t="n">
         <v>480</v>
       </c>
       <c r="J12" t="n">
-        <v>6.17564757756017</v>
+        <v>6.218638962208457</v>
       </c>
       <c r="K12" t="n">
         <v>20</v>
       </c>
       <c r="L12" t="n">
-        <v>3291.05</v>
+        <v>3315.26</v>
       </c>
       <c r="M12" t="n">
-        <v>1133.848295779899</v>
+        <v>1143.854256396487</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -1127,43 +1127,43 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>537</v>
+        <v>543</v>
       </c>
       <c r="B13" t="n">
-        <v>178.9</v>
+        <v>180.53</v>
       </c>
       <c r="C13" t="n">
-        <v>7.81538889341696</v>
+        <v>7.807557081067749</v>
       </c>
       <c r="D13" t="n">
         <v>7.8</v>
       </c>
       <c r="E13" t="n">
-        <v>56.81449421996716</v>
+        <v>56.8197967100564</v>
       </c>
       <c r="F13" t="n">
         <v>56.76</v>
       </c>
       <c r="G13" t="n">
-        <v>6.80924044375115</v>
+        <v>6.875487747971916</v>
       </c>
       <c r="H13" t="n">
-        <v>361.5430255391852</v>
+        <v>364.9947975565192</v>
       </c>
       <c r="I13" t="n">
         <v>480</v>
       </c>
       <c r="J13" t="n">
-        <v>7.532146365399692</v>
+        <v>7.604058282427482</v>
       </c>
       <c r="K13" t="n">
         <v>25</v>
       </c>
       <c r="L13" t="n">
-        <v>4755.02</v>
+        <v>4798.98</v>
       </c>
       <c r="M13" t="n">
-        <v>2000.824166025199</v>
+        <v>2016.891529195628</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -1185,13 +1185,13 @@
         <v>300</v>
       </c>
       <c r="B14" t="n">
-        <v>0.42</v>
+        <v>0.44</v>
       </c>
       <c r="C14" t="n">
-        <v>0.5083169427181334</v>
+        <v>0.518052074779115</v>
       </c>
       <c r="D14" t="n">
-        <v>0.5</v>
+        <v>0.51</v>
       </c>
       <c r="E14" t="n">
         <v>1</v>
@@ -1200,10 +1200,10 @@
         <v>1</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03369373350222291</v>
+        <v>0.03499667629129826</v>
       </c>
       <c r="H14" t="n">
-        <v>2.514590464328465</v>
+        <v>2.592331813441661</v>
       </c>
       <c r="I14" t="n">
         <v>480</v>
@@ -1215,7 +1215,7 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>56.17</v>
+        <v>56.18</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -1237,40 +1237,40 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B15" t="n">
-        <v>17.58</v>
+        <v>17.46</v>
       </c>
       <c r="C15" t="n">
-        <v>3.289159502115233</v>
+        <v>3.288514411188279</v>
       </c>
       <c r="D15" t="n">
         <v>3.29</v>
       </c>
       <c r="E15" t="n">
-        <v>25.73360631835377</v>
+        <v>25.73340306615325</v>
       </c>
       <c r="F15" t="n">
-        <v>25.66</v>
+        <v>25.65</v>
       </c>
       <c r="G15" t="n">
-        <v>1.28060913199222</v>
+        <v>1.271752820240926</v>
       </c>
       <c r="H15" t="n">
-        <v>50.01929701188966</v>
+        <v>49.66795841653555</v>
       </c>
       <c r="I15" t="n">
         <v>480</v>
       </c>
       <c r="J15" t="n">
-        <v>1.042068687747701</v>
+        <v>1.034749133677824</v>
       </c>
       <c r="K15" t="n">
         <v>5</v>
       </c>
       <c r="L15" t="n">
-        <v>262.4</v>
+        <v>260.52</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -1292,43 +1292,43 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B16" t="n">
-        <v>40.34</v>
+        <v>40.46</v>
       </c>
       <c r="C16" t="n">
-        <v>5.076333928886031</v>
+        <v>5.075099316124292</v>
       </c>
       <c r="D16" t="n">
-        <v>5.08</v>
+        <v>5.07</v>
       </c>
       <c r="E16" t="n">
-        <v>41.11509318862228</v>
+        <v>41.11561287398877</v>
       </c>
       <c r="F16" t="n">
-        <v>41.04</v>
+        <v>41.03</v>
       </c>
       <c r="G16" t="n">
-        <v>2.032093375987032</v>
+        <v>2.038552552863778</v>
       </c>
       <c r="H16" t="n">
-        <v>96.66960416893657</v>
+        <v>96.96856825838911</v>
       </c>
       <c r="I16" t="n">
         <v>480</v>
       </c>
       <c r="J16" t="n">
-        <v>2.013950086852845</v>
+        <v>2.020178505383107</v>
       </c>
       <c r="K16" t="n">
         <v>10</v>
       </c>
       <c r="L16" t="n">
-        <v>812.34</v>
+        <v>814.74</v>
       </c>
       <c r="M16" t="n">
-        <v>114.7595652121461</v>
+        <v>114.641825670425</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
@@ -1347,43 +1347,43 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="B17" t="n">
-        <v>71.18000000000001</v>
+        <v>72.11</v>
       </c>
       <c r="C17" t="n">
-        <v>6.851632404054937</v>
+        <v>6.847233185818407</v>
       </c>
       <c r="D17" t="n">
         <v>6.85</v>
       </c>
       <c r="E17" t="n">
-        <v>55.19314717933567</v>
+        <v>55.1930312391971</v>
       </c>
       <c r="F17" t="n">
         <v>55.11</v>
       </c>
       <c r="G17" t="n">
-        <v>2.927041730589991</v>
+        <v>2.966539527927826</v>
       </c>
       <c r="H17" t="n">
-        <v>151.5284754058526</v>
+        <v>153.5503720515275</v>
       </c>
       <c r="I17" t="n">
         <v>480</v>
       </c>
       <c r="J17" t="n">
-        <v>3.15684323762193</v>
+        <v>3.198966084406823</v>
       </c>
       <c r="K17" t="n">
         <v>15</v>
       </c>
       <c r="L17" t="n">
-        <v>1850.11</v>
+        <v>1874.33</v>
       </c>
       <c r="M17" t="n">
-        <v>649.9007071100376</v>
+        <v>657.7220498556389</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -1402,43 +1402,43 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>270</v>
+        <v>279</v>
       </c>
       <c r="B18" t="n">
-        <v>103.99</v>
+        <v>107.01</v>
       </c>
       <c r="C18" t="n">
-        <v>8.403130978001537</v>
+        <v>8.385859246508797</v>
       </c>
       <c r="D18" t="n">
-        <v>8.4</v>
+        <v>8.380000000000001</v>
       </c>
       <c r="E18" t="n">
-        <v>66.43428268174671</v>
+        <v>66.43025061874503</v>
       </c>
       <c r="F18" t="n">
-        <v>66.34999999999999</v>
+        <v>66.34</v>
       </c>
       <c r="G18" t="n">
-        <v>3.806938846062255</v>
+        <v>3.922045988485321</v>
       </c>
       <c r="H18" t="n">
-        <v>204.2169484609915</v>
+        <v>210.3284643495859</v>
       </c>
       <c r="I18" t="n">
         <v>480</v>
       </c>
       <c r="J18" t="n">
-        <v>4.254519759603989</v>
+        <v>4.381843007283041</v>
       </c>
       <c r="K18" t="n">
         <v>20</v>
       </c>
       <c r="L18" t="n">
-        <v>3213.18</v>
+        <v>3306.59</v>
       </c>
       <c r="M18" t="n">
-        <v>1473.569254380724</v>
+        <v>1513.222821725394</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -1457,46 +1457,46 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="B19" t="n">
-        <v>138.28</v>
+        <v>139.14</v>
       </c>
       <c r="C19" t="n">
-        <v>9.726364674340418</v>
+        <v>9.68461773578986</v>
       </c>
       <c r="D19" t="n">
-        <v>9.720000000000001</v>
+        <v>9.67</v>
       </c>
       <c r="E19" t="n">
-        <v>75.47741650565658</v>
+        <v>75.46307029436909</v>
       </c>
       <c r="F19" t="n">
-        <v>75.39</v>
+        <v>75.37</v>
       </c>
       <c r="G19" t="n">
-        <v>4.704634392433174</v>
+        <v>4.743865275118496</v>
       </c>
       <c r="H19" t="n">
-        <v>256.3276315591561</v>
+        <v>258.3635775844544</v>
       </c>
       <c r="I19" t="n">
         <v>480</v>
       </c>
       <c r="J19" t="n">
-        <v>5.340158990815754</v>
+        <v>5.382574533009467</v>
       </c>
       <c r="K19" t="n">
         <v>25</v>
       </c>
       <c r="L19" t="n">
-        <v>4829</v>
+        <v>4858.59</v>
       </c>
       <c r="M19" t="n">
-        <v>2527.091384064587</v>
+        <v>2534.088219467551</v>
       </c>
       <c r="N19" t="n">
-        <v>3578.612121237824</v>
+        <v>3524.314927590141</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -1515,10 +1515,10 @@
         <v>600</v>
       </c>
       <c r="B20" t="n">
-        <v>0.86</v>
+        <v>0.84</v>
       </c>
       <c r="C20" t="n">
-        <v>0.51295830107393</v>
+        <v>0.5070968559646395</v>
       </c>
       <c r="D20" t="n">
         <v>0.5</v>
@@ -1530,10 +1530,10 @@
         <v>1</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0686236929868448</v>
+        <v>0.06706436196316939</v>
       </c>
       <c r="H20" t="n">
-        <v>5.103086857660958</v>
+        <v>5.009820593176953</v>
       </c>
       <c r="I20" t="n">
         <v>480</v>
@@ -1545,7 +1545,7 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>112.34</v>
+        <v>112.33</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -1567,40 +1567,40 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="B21" t="n">
-        <v>34.91</v>
+        <v>34.68</v>
       </c>
       <c r="C21" t="n">
-        <v>3.288139633509549</v>
+        <v>3.288402894698747</v>
       </c>
       <c r="D21" t="n">
         <v>3.29</v>
       </c>
       <c r="E21" t="n">
-        <v>25.72815742897154</v>
+        <v>25.72840067638389</v>
       </c>
       <c r="F21" t="n">
         <v>25.65</v>
       </c>
       <c r="G21" t="n">
-        <v>2.543205114204353</v>
+        <v>2.526233600520957</v>
       </c>
       <c r="H21" t="n">
-        <v>99.31774744352286</v>
+        <v>98.65935823598954</v>
       </c>
       <c r="I21" t="n">
         <v>480</v>
       </c>
       <c r="J21" t="n">
-        <v>2.069119738406727</v>
+        <v>2.055403296583115</v>
       </c>
       <c r="K21" t="n">
         <v>5</v>
       </c>
       <c r="L21" t="n">
-        <v>520.91</v>
+        <v>517.48</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -1625,40 +1625,40 @@
         <v>582</v>
       </c>
       <c r="B22" t="n">
-        <v>78.84999999999999</v>
+        <v>78.78</v>
       </c>
       <c r="C22" t="n">
-        <v>4.983924842429211</v>
+        <v>4.981718197901798</v>
       </c>
       <c r="D22" t="n">
         <v>4.98</v>
       </c>
       <c r="E22" t="n">
-        <v>41.00915227813149</v>
+        <v>41.01073239761079</v>
       </c>
       <c r="F22" t="n">
         <v>40.93</v>
       </c>
       <c r="G22" t="n">
-        <v>4.027031592141665</v>
+        <v>4.024824946914554</v>
       </c>
       <c r="H22" t="n">
-        <v>190.3378754183254</v>
+        <v>190.202636099845</v>
       </c>
       <c r="I22" t="n">
         <v>480</v>
       </c>
       <c r="J22" t="n">
-        <v>3.965372404548445</v>
+        <v>3.96255491874677</v>
       </c>
       <c r="K22" t="n">
         <v>10</v>
       </c>
       <c r="L22" t="n">
-        <v>1587.96</v>
+        <v>1586.77</v>
       </c>
       <c r="M22" t="n">
-        <v>126.9467289527238</v>
+        <v>118.8638968584364</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
@@ -1677,43 +1677,43 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="B23" t="n">
-        <v>131.01</v>
+        <v>130</v>
       </c>
       <c r="C23" t="n">
-        <v>6.480133782660626</v>
+        <v>6.466513496232491</v>
       </c>
       <c r="D23" t="n">
-        <v>6.48</v>
+        <v>6.46</v>
       </c>
       <c r="E23" t="n">
-        <v>54.88497826686874</v>
+        <v>54.88691814952399</v>
       </c>
       <c r="F23" t="n">
-        <v>54.8</v>
+        <v>54.81</v>
       </c>
       <c r="G23" t="n">
-        <v>5.576372484041731</v>
+        <v>5.541002880690506</v>
       </c>
       <c r="H23" t="n">
-        <v>285.0941486623053</v>
+        <v>283.1395307284893</v>
       </c>
       <c r="I23" t="n">
         <v>480</v>
       </c>
       <c r="J23" t="n">
-        <v>5.939461430464693</v>
+        <v>5.898740223510193</v>
       </c>
       <c r="K23" t="n">
         <v>15</v>
       </c>
       <c r="L23" t="n">
-        <v>3397.93</v>
+        <v>3372.46</v>
       </c>
       <c r="M23" t="n">
-        <v>1087.701922120496</v>
+        <v>1075.411035837808</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -1732,43 +1732,43 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>565</v>
+        <v>555</v>
       </c>
       <c r="B24" t="n">
-        <v>180.7</v>
+        <v>176.54</v>
       </c>
       <c r="C24" t="n">
-        <v>7.657527082554148</v>
+        <v>7.636798771725837</v>
       </c>
       <c r="D24" t="n">
-        <v>7.65</v>
+        <v>7.62</v>
       </c>
       <c r="E24" t="n">
-        <v>65.91861222617388</v>
+        <v>65.92068986499801</v>
       </c>
       <c r="F24" t="n">
         <v>65.83</v>
       </c>
       <c r="G24" t="n">
-        <v>6.956687506512175</v>
+        <v>6.8071827014116</v>
       </c>
       <c r="H24" t="n">
-        <v>368.1379222588921</v>
+        <v>360.0523877232297</v>
       </c>
       <c r="I24" t="n">
         <v>480</v>
       </c>
       <c r="J24" t="n">
-        <v>7.669540047060252</v>
+        <v>7.50109141090062</v>
       </c>
       <c r="K24" t="n">
         <v>20</v>
       </c>
       <c r="L24" t="n">
-        <v>5558.76</v>
+        <v>5431.69</v>
       </c>
       <c r="M24" t="n">
-        <v>2307.124754162734</v>
+        <v>2246.959204792479</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -1787,46 +1787,46 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>552</v>
+        <v>544</v>
       </c>
       <c r="B25" t="n">
-        <v>221.91</v>
+        <v>218</v>
       </c>
       <c r="C25" t="n">
-        <v>8.585357888313272</v>
+        <v>8.571727941316917</v>
       </c>
       <c r="D25" t="n">
-        <v>8.56</v>
+        <v>8.550000000000001</v>
       </c>
       <c r="E25" t="n">
-        <v>74.89908480896803</v>
+        <v>74.90163661148108</v>
       </c>
       <c r="F25" t="n">
-        <v>74.8</v>
+        <v>74.81</v>
       </c>
       <c r="G25" t="n">
-        <v>8.026245890897691</v>
+        <v>7.891593663265681</v>
       </c>
       <c r="H25" t="n">
-        <v>432.1368639231519</v>
+        <v>424.7893766656783</v>
       </c>
       <c r="I25" t="n">
         <v>480</v>
       </c>
       <c r="J25" t="n">
-        <v>9.00285133173233</v>
+        <v>8.849778680534966</v>
       </c>
       <c r="K25" t="n">
         <v>25</v>
       </c>
       <c r="L25" t="n">
-        <v>7713.34</v>
+        <v>7578.22</v>
       </c>
       <c r="M25" t="n">
-        <v>3641.432865501581</v>
+        <v>3572.026317156186</v>
       </c>
       <c r="N25" t="n">
-        <v>1422.889373139883</v>
+        <v>1566.308768586436</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -1845,13 +1845,13 @@
         <v>300</v>
       </c>
       <c r="B26" t="n">
-        <v>0.41</v>
+        <v>0.43</v>
       </c>
       <c r="C26" t="n">
-        <v>0.4998746916099202</v>
+        <v>0.5097095487738532</v>
       </c>
       <c r="D26" t="n">
-        <v>0.49</v>
+        <v>0.5</v>
       </c>
       <c r="E26" t="n">
         <v>1</v>
@@ -1860,10 +1860,10 @@
         <v>1</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02608720739899728</v>
+        <v>0.02712381863514086</v>
       </c>
       <c r="H26" t="n">
-        <v>2.447898460552701</v>
+        <v>2.52565659092397</v>
       </c>
       <c r="I26" t="n">
         <v>490</v>
@@ -1875,7 +1875,7 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>56.16</v>
+        <v>56.17</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -1897,28 +1897,28 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="B27" t="n">
-        <v>7.01</v>
+        <v>7.05</v>
       </c>
       <c r="C27" t="n">
-        <v>2.097408526342819</v>
+        <v>2.097237263179879</v>
       </c>
       <c r="D27" t="n">
         <v>2.1</v>
       </c>
       <c r="E27" t="n">
-        <v>19.52600463608059</v>
+        <v>19.52585550552578</v>
       </c>
       <c r="F27" t="n">
-        <v>19.47</v>
+        <v>19.46</v>
       </c>
       <c r="G27" t="n">
-        <v>0.4470261690010084</v>
+        <v>0.4500144915207483</v>
       </c>
       <c r="H27" t="n">
-        <v>23.80587304711096</v>
+        <v>23.96578578479281</v>
       </c>
       <c r="I27" t="n">
         <v>490</v>
@@ -1930,7 +1930,7 @@
         <v>5</v>
       </c>
       <c r="L27" t="n">
-        <v>117</v>
+        <v>117.78</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -1952,40 +1952,40 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B28" t="n">
-        <v>20.22</v>
+        <v>20.15</v>
       </c>
       <c r="C28" t="n">
-        <v>3.588036943656472</v>
+        <v>3.587961376096077</v>
       </c>
       <c r="D28" t="n">
         <v>3.59</v>
       </c>
       <c r="E28" t="n">
-        <v>32.01442450711462</v>
+        <v>32.01404898250903</v>
       </c>
       <c r="F28" t="n">
         <v>31.96</v>
       </c>
       <c r="G28" t="n">
-        <v>1.109998515258537</v>
+        <v>1.106115934429251</v>
       </c>
       <c r="H28" t="n">
-        <v>55.58246740192432</v>
+        <v>55.38760041241222</v>
       </c>
       <c r="I28" t="n">
         <v>490</v>
       </c>
       <c r="J28" t="n">
-        <v>1.134336069427027</v>
+        <v>1.130359192090045</v>
       </c>
       <c r="K28" t="n">
         <v>10</v>
       </c>
       <c r="L28" t="n">
-        <v>350.03</v>
+        <v>348.78</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
@@ -2007,43 +2007,43 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="B29" t="n">
-        <v>40.86</v>
+        <v>41.31</v>
       </c>
       <c r="C29" t="n">
-        <v>5.153929271221016</v>
+        <v>5.155448601251658</v>
       </c>
       <c r="D29" t="n">
-        <v>5.15</v>
+        <v>5.16</v>
       </c>
       <c r="E29" t="n">
-        <v>43.70767545753338</v>
+        <v>43.70760840031978</v>
       </c>
       <c r="F29" t="n">
         <v>43.66</v>
       </c>
       <c r="G29" t="n">
-        <v>1.732076347703747</v>
+        <v>1.751207451778249</v>
       </c>
       <c r="H29" t="n">
-        <v>97.32654968068348</v>
+        <v>98.40848152157649</v>
       </c>
       <c r="I29" t="n">
         <v>490</v>
       </c>
       <c r="J29" t="n">
-        <v>1.986256115932316</v>
+        <v>2.008336357583194</v>
       </c>
       <c r="K29" t="n">
         <v>15</v>
       </c>
       <c r="L29" t="n">
-        <v>870.1799999999999</v>
+        <v>879.92</v>
       </c>
       <c r="M29" t="n">
-        <v>145.8417667427588</v>
+        <v>147.6514346855556</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -2062,43 +2062,43 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="B30" t="n">
-        <v>66.58</v>
+        <v>67.08</v>
       </c>
       <c r="C30" t="n">
-        <v>6.626475688336731</v>
+        <v>6.627628611801459</v>
       </c>
       <c r="D30" t="n">
         <v>6.63</v>
       </c>
       <c r="E30" t="n">
-        <v>55.31548536095441</v>
+        <v>55.31344932090792</v>
       </c>
       <c r="F30" t="n">
         <v>55.26</v>
       </c>
       <c r="G30" t="n">
-        <v>2.440198237183456</v>
+        <v>2.458375492156354</v>
       </c>
       <c r="H30" t="n">
-        <v>143.6161840930676</v>
+        <v>144.6897894941094</v>
       </c>
       <c r="I30" t="n">
         <v>490</v>
       </c>
       <c r="J30" t="n">
-        <v>2.930942532511583</v>
+        <v>2.952852846818559</v>
       </c>
       <c r="K30" t="n">
         <v>20</v>
       </c>
       <c r="L30" t="n">
-        <v>1738.41</v>
+        <v>1751.45</v>
       </c>
       <c r="M30" t="n">
-        <v>578.4322231877651</v>
+        <v>582.949161618786</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -2117,43 +2117,43 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="B31" t="n">
-        <v>92.95999999999999</v>
+        <v>95.04000000000001</v>
       </c>
       <c r="C31" t="n">
-        <v>7.93038101612788</v>
+        <v>7.931428299597067</v>
       </c>
       <c r="D31" t="n">
         <v>7.93</v>
       </c>
       <c r="E31" t="n">
-        <v>65.78884227825313</v>
+        <v>65.78485352416976</v>
       </c>
       <c r="F31" t="n">
         <v>65.73</v>
       </c>
       <c r="G31" t="n">
-        <v>3.117252699668515</v>
+        <v>3.186898437712939</v>
       </c>
       <c r="H31" t="n">
-        <v>186.7825270440187</v>
+        <v>190.9584013198435</v>
       </c>
       <c r="I31" t="n">
         <v>490</v>
       </c>
       <c r="J31" t="n">
-        <v>3.811888307020789</v>
+        <v>3.897110231017213</v>
       </c>
       <c r="K31" t="n">
         <v>25</v>
       </c>
       <c r="L31" t="n">
-        <v>2851.49</v>
+        <v>2915.23</v>
       </c>
       <c r="M31" t="n">
-        <v>1229.856768376542</v>
+        <v>1257.55064255063</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
@@ -2175,13 +2175,13 @@
         <v>600</v>
       </c>
       <c r="B32" t="n">
-        <v>0.87</v>
+        <v>0.84</v>
       </c>
       <c r="C32" t="n">
-        <v>0.5162305493731149</v>
+        <v>0.5077554292862827</v>
       </c>
       <c r="D32" t="n">
-        <v>0.51</v>
+        <v>0.5</v>
       </c>
       <c r="E32" t="n">
         <v>1</v>
@@ -2190,10 +2190,10 @@
         <v>1</v>
       </c>
       <c r="G32" t="n">
-        <v>0.05564455726147234</v>
+        <v>0.05383248647581229</v>
       </c>
       <c r="H32" t="n">
-        <v>5.15543589919391</v>
+        <v>5.020267337861309</v>
       </c>
       <c r="I32" t="n">
         <v>490</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>112.35</v>
+        <v>112.33</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -2227,28 +2227,28 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>587</v>
+        <v>591</v>
       </c>
       <c r="B33" t="n">
-        <v>14.08</v>
+        <v>14.17</v>
       </c>
       <c r="C33" t="n">
-        <v>2.097280871838083</v>
+        <v>2.096922510475909</v>
       </c>
       <c r="D33" t="n">
         <v>2.1</v>
       </c>
       <c r="E33" t="n">
-        <v>19.52175241130248</v>
+        <v>19.52201310220779</v>
       </c>
       <c r="F33" t="n">
-        <v>19.47</v>
+        <v>19.46</v>
       </c>
       <c r="G33" t="n">
-        <v>0.8985356875341092</v>
+        <v>0.9043494575680633</v>
       </c>
       <c r="H33" t="n">
-        <v>47.85165221953535</v>
+        <v>48.16451636866918</v>
       </c>
       <c r="I33" t="n">
         <v>490</v>
@@ -2260,7 +2260,7 @@
         <v>5</v>
       </c>
       <c r="L33" t="n">
-        <v>235.17</v>
+        <v>236.71</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -2282,40 +2282,40 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>571</v>
+        <v>585</v>
       </c>
       <c r="B34" t="n">
-        <v>39.87</v>
+        <v>40.84</v>
       </c>
       <c r="C34" t="n">
-        <v>3.577996530892222</v>
+        <v>3.577694014237756</v>
       </c>
       <c r="D34" t="n">
         <v>3.58</v>
       </c>
       <c r="E34" t="n">
-        <v>31.97285595957569</v>
+        <v>31.97258295115358</v>
       </c>
       <c r="F34" t="n">
         <v>31.92</v>
       </c>
       <c r="G34" t="n">
-        <v>2.193322114971195</v>
+        <v>2.246870089196137</v>
       </c>
       <c r="H34" t="n">
-        <v>109.7054421357441</v>
+        <v>112.3799910139852</v>
       </c>
       <c r="I34" t="n">
         <v>490</v>
       </c>
       <c r="J34" t="n">
-        <v>2.23888657419886</v>
+        <v>2.293469204367045</v>
       </c>
       <c r="K34" t="n">
         <v>10</v>
       </c>
       <c r="L34" t="n">
-        <v>689.98</v>
+        <v>706.73</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
@@ -2337,43 +2337,43 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>565</v>
+        <v>574</v>
       </c>
       <c r="B35" t="n">
-        <v>77.73</v>
+        <v>78.78</v>
       </c>
       <c r="C35" t="n">
-        <v>5.022362031156399</v>
+        <v>5.016414244611714</v>
       </c>
       <c r="D35" t="n">
         <v>5.02</v>
       </c>
       <c r="E35" t="n">
-        <v>43.58078652562431</v>
+        <v>43.57629832164762</v>
       </c>
       <c r="F35" t="n">
-        <v>43.53</v>
+        <v>43.52</v>
       </c>
       <c r="G35" t="n">
-        <v>3.350052250314291</v>
+        <v>3.3979375142526</v>
       </c>
       <c r="H35" t="n">
-        <v>187.0707175548747</v>
+        <v>189.689497998181</v>
       </c>
       <c r="I35" t="n">
         <v>490</v>
       </c>
       <c r="J35" t="n">
-        <v>3.81776974601785</v>
+        <v>3.871214244860837</v>
       </c>
       <c r="K35" t="n">
         <v>15</v>
       </c>
       <c r="L35" t="n">
-        <v>1656.48</v>
+        <v>1678.89</v>
       </c>
       <c r="M35" t="n">
-        <v>156.9610452702074</v>
+        <v>152.1337940921464</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -2392,43 +2392,43 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>557</v>
+        <v>567</v>
       </c>
       <c r="B36" t="n">
-        <v>118.02</v>
+        <v>119.72</v>
       </c>
       <c r="C36" t="n">
-        <v>6.232921379978983</v>
+        <v>6.222019606608034</v>
       </c>
       <c r="D36" t="n">
-        <v>6.23</v>
+        <v>6.22</v>
       </c>
       <c r="E36" t="n">
-        <v>55.03008601199447</v>
+        <v>55.02107186680634</v>
       </c>
       <c r="F36" t="n">
-        <v>54.98</v>
+        <v>54.97</v>
       </c>
       <c r="G36" t="n">
-        <v>4.470827518016676</v>
+        <v>4.539538464693192</v>
       </c>
       <c r="H36" t="n">
-        <v>260.8166375146729</v>
+        <v>264.754235284915</v>
       </c>
       <c r="I36" t="n">
         <v>490</v>
       </c>
       <c r="J36" t="n">
-        <v>5.322788520707611</v>
+        <v>5.403147658875815</v>
       </c>
       <c r="K36" t="n">
         <v>20</v>
       </c>
       <c r="L36" t="n">
-        <v>3078.32</v>
+        <v>3122.4</v>
       </c>
       <c r="M36" t="n">
-        <v>915.130434823162</v>
+        <v>925.0115882875585</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -2447,43 +2447,43 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>538</v>
+        <v>557</v>
       </c>
       <c r="B37" t="n">
-        <v>152.6</v>
+        <v>157.37</v>
       </c>
       <c r="C37" t="n">
-        <v>7.211501438951335</v>
+        <v>7.197318038838813</v>
       </c>
       <c r="D37" t="n">
-        <v>7.21</v>
+        <v>7.19</v>
       </c>
       <c r="E37" t="n">
-        <v>65.30284944273151</v>
+        <v>65.28720447046373</v>
       </c>
       <c r="F37" t="n">
-        <v>65.25</v>
+        <v>65.23</v>
       </c>
       <c r="G37" t="n">
-        <v>5.354687492067269</v>
+        <v>5.527299818225743</v>
       </c>
       <c r="H37" t="n">
-        <v>318.3563489283361</v>
+        <v>328.5595983587621</v>
       </c>
       <c r="I37" t="n">
         <v>490</v>
       </c>
       <c r="J37" t="n">
-        <v>6.497068345476247</v>
+        <v>6.705297925689023</v>
       </c>
       <c r="K37" t="n">
         <v>25</v>
       </c>
       <c r="L37" t="n">
-        <v>4664.62</v>
+        <v>4809.54</v>
       </c>
       <c r="M37" t="n">
-        <v>1790.692597877523</v>
+        <v>1841.488202734779</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
@@ -2505,13 +2505,13 @@
         <v>300</v>
       </c>
       <c r="B38" t="n">
-        <v>0.42</v>
+        <v>0.41</v>
       </c>
       <c r="C38" t="n">
-        <v>0.5057822531326445</v>
+        <v>0.4989144616429525</v>
       </c>
       <c r="D38" t="n">
-        <v>0.5</v>
+        <v>0.49</v>
       </c>
       <c r="E38" t="n">
         <v>1</v>
@@ -2520,10 +2520,10 @@
         <v>1</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02670745258576116</v>
+        <v>0.02598707967019179</v>
       </c>
       <c r="H38" t="n">
-        <v>2.494495997768977</v>
+        <v>2.440355704831624</v>
       </c>
       <c r="I38" t="n">
         <v>490</v>
@@ -2535,7 +2535,7 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>56.17</v>
+        <v>56.16</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -2557,28 +2557,28 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B39" t="n">
-        <v>12.28</v>
+        <v>12.2</v>
       </c>
       <c r="C39" t="n">
-        <v>2.757698917416005</v>
+        <v>2.757773579560554</v>
       </c>
       <c r="D39" t="n">
         <v>2.76</v>
       </c>
       <c r="E39" t="n">
-        <v>25.73373264875929</v>
+        <v>25.73387101115816</v>
       </c>
       <c r="F39" t="n">
         <v>25.65</v>
       </c>
       <c r="G39" t="n">
-        <v>0.783374528134355</v>
+        <v>0.7781235892385338</v>
       </c>
       <c r="H39" t="n">
-        <v>37.44289354058694</v>
+        <v>37.1915170757212</v>
       </c>
       <c r="I39" t="n">
         <v>490</v>
@@ -2590,7 +2590,7 @@
         <v>5</v>
       </c>
       <c r="L39" t="n">
-        <v>199.6</v>
+        <v>198.26</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -2612,40 +2612,40 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="B40" t="n">
-        <v>30.46</v>
+        <v>30.67</v>
       </c>
       <c r="C40" t="n">
-        <v>4.403618243625163</v>
+        <v>4.40378383679282</v>
       </c>
       <c r="D40" t="n">
         <v>4.4</v>
       </c>
       <c r="E40" t="n">
-        <v>41.25508277762067</v>
+        <v>41.2556918743084</v>
       </c>
       <c r="F40" t="n">
         <v>41.18</v>
       </c>
       <c r="G40" t="n">
-        <v>1.434127345432552</v>
+        <v>1.444156995058768</v>
       </c>
       <c r="H40" t="n">
-        <v>77.2159458595801</v>
+        <v>77.75686043222797</v>
       </c>
       <c r="I40" t="n">
         <v>490</v>
       </c>
       <c r="J40" t="n">
-        <v>1.575835629787349</v>
+        <v>1.58687470269853</v>
       </c>
       <c r="K40" t="n">
         <v>10</v>
       </c>
       <c r="L40" t="n">
-        <v>628.73</v>
+        <v>633.16</v>
       </c>
       <c r="M40" t="n">
         <v>0</v>
@@ -2667,43 +2667,43 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="B41" t="n">
-        <v>57.37</v>
+        <v>56.52</v>
       </c>
       <c r="C41" t="n">
-        <v>6.074879752901059</v>
+        <v>6.072725384883319</v>
       </c>
       <c r="D41" t="n">
         <v>6.07</v>
       </c>
       <c r="E41" t="n">
-        <v>56.78807784057443</v>
+        <v>56.78745811564818</v>
       </c>
       <c r="F41" t="n">
         <v>56.71</v>
       </c>
       <c r="G41" t="n">
-        <v>2.204619278910941</v>
+        <v>2.172571187323559</v>
       </c>
       <c r="H41" t="n">
-        <v>128.0627565634548</v>
+        <v>126.1935232604214</v>
       </c>
       <c r="I41" t="n">
         <v>490</v>
       </c>
       <c r="J41" t="n">
-        <v>2.613525644152138</v>
+        <v>2.575378025722885</v>
       </c>
       <c r="K41" t="n">
         <v>15</v>
       </c>
       <c r="L41" t="n">
-        <v>1544.5</v>
+        <v>1521.78</v>
       </c>
       <c r="M41" t="n">
-        <v>436.6358348488662</v>
+        <v>429.8847873513319</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -2722,43 +2722,43 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="B42" t="n">
-        <v>88.33</v>
+        <v>86.27</v>
       </c>
       <c r="C42" t="n">
-        <v>7.564801399983891</v>
+        <v>7.570491128207317</v>
       </c>
       <c r="D42" t="n">
-        <v>7.56</v>
+        <v>7.57</v>
       </c>
       <c r="E42" t="n">
-        <v>72.18194089663243</v>
+        <v>72.18614204612471</v>
       </c>
       <c r="F42" t="n">
         <v>72.11</v>
       </c>
       <c r="G42" t="n">
-        <v>3.028575608465613</v>
+        <v>2.957053579720867</v>
       </c>
       <c r="H42" t="n">
-        <v>180.8241667944294</v>
+        <v>176.5644191671016</v>
       </c>
       <c r="I42" t="n">
         <v>490</v>
       </c>
       <c r="J42" t="n">
-        <v>3.690289118253661</v>
+        <v>3.603355493206156</v>
       </c>
       <c r="K42" t="n">
         <v>20</v>
       </c>
       <c r="L42" t="n">
-        <v>2972.33</v>
+        <v>2903.31</v>
       </c>
       <c r="M42" t="n">
-        <v>1220.408426665717</v>
+        <v>1193.151360814117</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -2777,46 +2777,46 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="B43" t="n">
-        <v>118.07</v>
+        <v>116.44</v>
       </c>
       <c r="C43" t="n">
-        <v>8.840455394983682</v>
+        <v>8.859223418840811</v>
       </c>
       <c r="D43" t="n">
-        <v>8.84</v>
+        <v>8.859999999999999</v>
       </c>
       <c r="E43" t="n">
-        <v>86.06633286424771</v>
+        <v>86.08119708972042</v>
       </c>
       <c r="F43" t="n">
-        <v>85.98999999999999</v>
+        <v>86</v>
       </c>
       <c r="G43" t="n">
-        <v>3.773396928886244</v>
+        <v>3.717717311297023</v>
       </c>
       <c r="H43" t="n">
-        <v>227.2854118936634</v>
+        <v>223.9437410860026</v>
       </c>
       <c r="I43" t="n">
         <v>490</v>
       </c>
       <c r="J43" t="n">
-        <v>4.638477793748232</v>
+        <v>4.570280430326584</v>
       </c>
       <c r="K43" t="n">
         <v>25</v>
       </c>
       <c r="L43" t="n">
-        <v>4705.7</v>
+        <v>4641</v>
       </c>
       <c r="M43" t="n">
-        <v>2289.742220812814</v>
+        <v>2262.444621253327</v>
       </c>
       <c r="N43" t="n">
-        <v>821.2747293472694</v>
+        <v>862.8223557648652</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
@@ -2835,13 +2835,13 @@
         <v>600</v>
       </c>
       <c r="B44" t="n">
-        <v>0.84</v>
+        <v>0.87</v>
       </c>
       <c r="C44" t="n">
-        <v>0.507939289111584</v>
+        <v>0.5165235699647456</v>
       </c>
       <c r="D44" t="n">
-        <v>0.5</v>
+        <v>0.51</v>
       </c>
       <c r="E44" t="n">
         <v>1</v>
@@ -2850,10 +2850,10 @@
         <v>1</v>
       </c>
       <c r="G44" t="n">
-        <v>0.05387147935691076</v>
+        <v>0.05570774464392109</v>
       </c>
       <c r="H44" t="n">
-        <v>5.023185313855959</v>
+        <v>5.160133427713635</v>
       </c>
       <c r="I44" t="n">
         <v>490</v>
@@ -2865,7 +2865,7 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>112.34</v>
+        <v>112.35</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -2887,40 +2887,40 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="B45" t="n">
-        <v>24.25</v>
+        <v>24.17</v>
       </c>
       <c r="C45" t="n">
-        <v>2.757001445977286</v>
+        <v>2.757252038991461</v>
       </c>
       <c r="D45" t="n">
         <v>2.76</v>
       </c>
       <c r="E45" t="n">
-        <v>25.72851524007308</v>
+        <v>25.72816254764867</v>
       </c>
       <c r="F45" t="n">
         <v>25.65</v>
       </c>
       <c r="G45" t="n">
-        <v>1.547440259531137</v>
+        <v>1.542430220463972</v>
       </c>
       <c r="H45" t="n">
-        <v>73.97027635875969</v>
+        <v>73.72814099161297</v>
       </c>
       <c r="I45" t="n">
         <v>490</v>
       </c>
       <c r="J45" t="n">
-        <v>1.509597476709381</v>
+        <v>1.504655938604347</v>
       </c>
       <c r="K45" t="n">
         <v>5</v>
       </c>
       <c r="L45" t="n">
-        <v>394.26</v>
+        <v>392.99</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -2942,40 +2942,40 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="B46" t="n">
-        <v>59.92</v>
+        <v>59.72</v>
       </c>
       <c r="C46" t="n">
-        <v>4.378605506550619</v>
+        <v>4.379169272770713</v>
       </c>
       <c r="D46" t="n">
         <v>4.38</v>
       </c>
       <c r="E46" t="n">
-        <v>41.17994626144453</v>
+        <v>41.18008836812327</v>
       </c>
       <c r="F46" t="n">
-        <v>41.1</v>
+        <v>41.11</v>
       </c>
       <c r="G46" t="n">
-        <v>2.832281065465899</v>
+        <v>2.822867226485536</v>
       </c>
       <c r="H46" t="n">
-        <v>152.2294265174998</v>
+        <v>151.7294345511315</v>
       </c>
       <c r="I46" t="n">
         <v>490</v>
       </c>
       <c r="J46" t="n">
-        <v>3.106722990153057</v>
+        <v>3.096519072472071</v>
       </c>
       <c r="K46" t="n">
         <v>10</v>
       </c>
       <c r="L46" t="n">
-        <v>1235.85</v>
+        <v>1231.91</v>
       </c>
       <c r="M46" t="n">
         <v>0</v>
@@ -2997,43 +2997,43 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="B47" t="n">
-        <v>103.56</v>
+        <v>104</v>
       </c>
       <c r="C47" t="n">
-        <v>5.812525350506308</v>
+        <v>5.814510897552293</v>
       </c>
       <c r="D47" t="n">
         <v>5.81</v>
       </c>
       <c r="E47" t="n">
-        <v>56.54358054862659</v>
+        <v>56.54483781874343</v>
       </c>
       <c r="F47" t="n">
         <v>56.47</v>
       </c>
       <c r="G47" t="n">
-        <v>4.081509510946246</v>
+        <v>4.098024176193424</v>
       </c>
       <c r="H47" t="n">
-        <v>235.2566540190562</v>
+        <v>236.2233216407843</v>
       </c>
       <c r="I47" t="n">
         <v>490</v>
       </c>
       <c r="J47" t="n">
-        <v>4.801156204470534</v>
+        <v>4.820884115118046</v>
       </c>
       <c r="K47" t="n">
         <v>15</v>
       </c>
       <c r="L47" t="n">
-        <v>2785.38</v>
+        <v>2797.34</v>
       </c>
       <c r="M47" t="n">
-        <v>711.3535646435589</v>
+        <v>715.0082311900215</v>
       </c>
       <c r="N47" t="n">
         <v>0</v>
@@ -3052,43 +3052,43 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>547</v>
+        <v>553</v>
       </c>
       <c r="B48" t="n">
-        <v>145.05</v>
+        <v>146.48</v>
       </c>
       <c r="C48" t="n">
-        <v>6.972718211822948</v>
+        <v>6.968936153320366</v>
       </c>
       <c r="D48" t="n">
         <v>6.97</v>
       </c>
       <c r="E48" t="n">
-        <v>71.6732992237998</v>
+        <v>71.6720502346577</v>
       </c>
       <c r="F48" t="n">
         <v>71.59</v>
       </c>
       <c r="G48" t="n">
-        <v>5.17684553171902</v>
+        <v>5.229392465277148</v>
       </c>
       <c r="H48" t="n">
-        <v>306.6533546248962</v>
+        <v>309.7471655162448</v>
       </c>
       <c r="I48" t="n">
         <v>490</v>
       </c>
       <c r="J48" t="n">
-        <v>6.258231727038698</v>
+        <v>6.321370724821323</v>
       </c>
       <c r="K48" t="n">
         <v>20</v>
       </c>
       <c r="L48" t="n">
-        <v>4862.4</v>
+        <v>4910.52</v>
       </c>
       <c r="M48" t="n">
-        <v>1791.383849236223</v>
+        <v>1807.687212491644</v>
       </c>
       <c r="N48" t="n">
         <v>0</v>
@@ -3107,43 +3107,43 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>535</v>
+        <v>543</v>
       </c>
       <c r="B49" t="n">
-        <v>182.2</v>
+        <v>184.43</v>
       </c>
       <c r="C49" t="n">
-        <v>7.901980161935139</v>
+        <v>7.891400478608174</v>
       </c>
       <c r="D49" t="n">
-        <v>7.89</v>
+        <v>7.88</v>
       </c>
       <c r="E49" t="n">
-        <v>85.38831402682702</v>
+        <v>85.38681068009068</v>
       </c>
       <c r="F49" t="n">
         <v>85.3</v>
       </c>
       <c r="G49" t="n">
-        <v>6.11847089421816</v>
+        <v>6.197192316294479</v>
       </c>
       <c r="H49" t="n">
-        <v>366.6232118308819</v>
+        <v>371.3061427991291</v>
       </c>
       <c r="I49" t="n">
         <v>490</v>
       </c>
       <c r="J49" t="n">
-        <v>7.482106363895548</v>
+        <v>7.577676383655696</v>
       </c>
       <c r="K49" t="n">
         <v>25</v>
       </c>
       <c r="L49" t="n">
-        <v>7224.54</v>
+        <v>7313.32</v>
       </c>
       <c r="M49" t="n">
-        <v>3149.906954732668</v>
+        <v>3183.929013236973</v>
       </c>
       <c r="N49" t="n">
         <v>0</v>
